--- a/database/industries/shoyande/kimiatec/product/quarterly.xlsx
+++ b/database/industries/shoyande/kimiatec/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\kimiatec\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8D900E-2F03-4DC9-A108-5F83485A011E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="29">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کیمیاتک-آریان کیمیا تک</t>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>سایر / تخفیفات</t>
   </si>
   <si>
@@ -94,6 +95,9 @@
   </si>
   <si>
     <t>ریال / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>تعداد / ریال</t>
@@ -108,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -278,7 +282,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -290,7 +294,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -337,6 +341,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -372,6 +393,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,17 +561,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -543,7 +581,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -555,7 +593,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -567,7 +605,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -577,7 +615,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -589,7 +627,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -601,7 +639,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -611,7 +649,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -633,7 +671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -643,7 +681,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -665,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -676,20 +714,20 @@
       <c r="E11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
+      <c r="F11" s="11">
+        <v>2509811</v>
       </c>
       <c r="G11" s="11">
-        <v>2509811</v>
+        <v>5275511</v>
       </c>
       <c r="H11" s="11">
-        <v>5275511</v>
+        <v>4674724</v>
       </c>
       <c r="I11" s="11">
-        <v>4674724</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4357531</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -698,11 +736,11 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>2727610</v>
-      </c>
-      <c r="F12" s="9">
         <v>3778799</v>
       </c>
+      <c r="F12" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="9" t="s">
         <v>13</v>
       </c>
@@ -713,7 +751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -724,20 +762,20 @@
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
+      <c r="F13" s="11">
+        <v>8543605</v>
       </c>
       <c r="G13" s="11">
-        <v>8543605</v>
+        <v>9698138</v>
       </c>
       <c r="H13" s="11">
-        <v>9698138</v>
+        <v>10735735</v>
       </c>
       <c r="I13" s="11">
-        <v>10735735</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10103272</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
@@ -746,11 +784,11 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>9767264</v>
-      </c>
-      <c r="F14" s="9">
         <v>8283461</v>
       </c>
+      <c r="F14" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="G14" s="9" t="s">
         <v>13</v>
       </c>
@@ -761,7 +799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
@@ -772,20 +810,20 @@
       <c r="E15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>13</v>
+      <c r="F15" s="11">
+        <v>2473137</v>
       </c>
       <c r="G15" s="11">
-        <v>2473137</v>
+        <v>1497447</v>
       </c>
       <c r="H15" s="11">
-        <v>1497447</v>
+        <v>2506105</v>
       </c>
       <c r="I15" s="11">
-        <v>2506105</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2534778</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
@@ -794,11 +832,11 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>2043778</v>
-      </c>
-      <c r="F16" s="9">
         <v>1935946</v>
       </c>
+      <c r="F16" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="G16" s="9" t="s">
         <v>13</v>
       </c>
@@ -809,29 +847,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
-        <v>14538652</v>
+        <v>13998206</v>
       </c>
       <c r="F17" s="13">
-        <v>13998206</v>
+        <v>13526553</v>
       </c>
       <c r="G17" s="13">
-        <v>13526553</v>
+        <v>16471096</v>
       </c>
       <c r="H17" s="13">
-        <v>16471096</v>
+        <v>17916564</v>
       </c>
       <c r="I17" s="13">
-        <v>17916564</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16995581</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -841,7 +879,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -851,7 +889,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -861,7 +899,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>18</v>
       </c>
@@ -883,7 +921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -893,7 +931,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
@@ -917,7 +955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>10</v>
       </c>
@@ -939,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>11</v>
       </c>
@@ -950,31 +988,31 @@
       <c r="E25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>13</v>
+      <c r="F25" s="9">
+        <v>3526832</v>
       </c>
       <c r="G25" s="9">
-        <v>3526832</v>
+        <v>3847863</v>
       </c>
       <c r="H25" s="9">
-        <v>3847863</v>
+        <v>4509662</v>
       </c>
       <c r="I25" s="9">
-        <v>4509662</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2921760</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>2653328</v>
-      </c>
-      <c r="F26" s="11">
         <v>3969266</v>
       </c>
+      <c r="F26" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G26" s="11" t="s">
         <v>13</v>
       </c>
@@ -985,7 +1023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>15</v>
       </c>
@@ -996,31 +1034,31 @@
       <c r="E27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>13</v>
+      <c r="F27" s="9">
+        <v>10466061</v>
       </c>
       <c r="G27" s="9">
-        <v>10466061</v>
+        <v>9747934</v>
       </c>
       <c r="H27" s="9">
-        <v>9747934</v>
+        <v>10012442</v>
       </c>
       <c r="I27" s="9">
-        <v>10012442</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8626882</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>11045647</v>
-      </c>
-      <c r="F28" s="11">
         <v>7334750</v>
       </c>
+      <c r="F28" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G28" s="11" t="s">
         <v>13</v>
       </c>
@@ -1031,7 +1069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>16</v>
       </c>
@@ -1042,31 +1080,31 @@
       <c r="E29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>13</v>
+      <c r="F29" s="9">
+        <v>2300045</v>
       </c>
       <c r="G29" s="9">
-        <v>2300045</v>
+        <v>3063682</v>
       </c>
       <c r="H29" s="9">
-        <v>3063682</v>
+        <v>1584239</v>
       </c>
       <c r="I29" s="9">
-        <v>1584239</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6516995</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>2019843</v>
-      </c>
-      <c r="F30" s="11">
         <v>2935819</v>
       </c>
+      <c r="F30" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G30" s="11" t="s">
         <v>13</v>
       </c>
@@ -1077,29 +1115,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>15718818</v>
+        <v>14239835</v>
       </c>
       <c r="F31" s="15">
-        <v>14239835</v>
+        <v>16292938</v>
       </c>
       <c r="G31" s="15">
-        <v>16292938</v>
+        <v>16659479</v>
       </c>
       <c r="H31" s="15">
-        <v>16659479</v>
+        <v>16106343</v>
       </c>
       <c r="I31" s="15">
-        <v>16106343</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18065637</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1109,7 +1147,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1119,7 +1157,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1129,7 +1167,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>21</v>
       </c>
@@ -1151,7 +1189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1161,7 +1199,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>19</v>
       </c>
@@ -1185,7 +1223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>10</v>
       </c>
@@ -1209,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>11</v>
       </c>
@@ -1218,22 +1256,22 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
-        <v>943321</v>
+        <v>1142457</v>
       </c>
       <c r="F39" s="9">
-        <v>1142457</v>
+        <v>1111544</v>
       </c>
       <c r="G39" s="9">
-        <v>1111544</v>
+        <v>1194903</v>
       </c>
       <c r="H39" s="9">
-        <v>1194903</v>
+        <v>2158823</v>
       </c>
       <c r="I39" s="9">
-        <v>2158823</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279891</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>15</v>
       </c>
@@ -1242,22 +1280,22 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>2378942</v>
+        <v>1882454</v>
       </c>
       <c r="F40" s="11">
-        <v>1882454</v>
+        <v>2697091</v>
       </c>
       <c r="G40" s="11">
-        <v>2697091</v>
+        <v>2733144</v>
       </c>
       <c r="H40" s="11">
-        <v>2733144</v>
+        <v>3470136</v>
       </c>
       <c r="I40" s="11">
-        <v>3470136</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3120662</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>16</v>
       </c>
@@ -1266,44 +1304,44 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
-        <v>958207</v>
+        <v>1328298</v>
       </c>
       <c r="F41" s="9">
-        <v>1328298</v>
+        <v>1378084</v>
       </c>
       <c r="G41" s="9">
-        <v>1378084</v>
+        <v>1691608</v>
       </c>
       <c r="H41" s="9">
-        <v>1691608</v>
+        <v>1015053</v>
       </c>
       <c r="I41" s="9">
-        <v>1015053</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3919820</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
-        <v>4280470</v>
+        <v>4353209</v>
       </c>
       <c r="F42" s="13">
-        <v>4353209</v>
+        <v>5186719</v>
       </c>
       <c r="G42" s="13">
-        <v>5186719</v>
+        <v>5619655</v>
       </c>
       <c r="H42" s="13">
-        <v>5619655</v>
+        <v>6644012</v>
       </c>
       <c r="I42" s="13">
-        <v>6644012</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7320373</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1313,7 +1351,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1323,7 +1361,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1333,7 +1371,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>23</v>
       </c>
@@ -1355,7 +1393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1365,7 +1403,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>19</v>
       </c>
@@ -1389,12 +1427,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
@@ -1413,79 +1451,79 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>355524</v>
+        <v>276263</v>
       </c>
       <c r="F50" s="9">
-        <v>276263</v>
+        <v>315168</v>
       </c>
       <c r="G50" s="9">
-        <v>315168</v>
+        <v>310537</v>
       </c>
       <c r="H50" s="9">
-        <v>310537</v>
+        <v>478711</v>
       </c>
       <c r="I50" s="9">
-        <v>478711</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>95795</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>215374</v>
+        <v>288061</v>
       </c>
       <c r="F51" s="11">
-        <v>288061</v>
+        <v>257699</v>
       </c>
       <c r="G51" s="11">
-        <v>257699</v>
+        <v>280382</v>
       </c>
       <c r="H51" s="11">
-        <v>280382</v>
+        <v>346582</v>
       </c>
       <c r="I51" s="11">
-        <v>346582</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>361737</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
-        <v>474397</v>
+        <v>403431</v>
       </c>
       <c r="F52" s="9">
-        <v>403431</v>
+        <v>599155</v>
       </c>
       <c r="G52" s="9">
-        <v>599155</v>
+        <v>552149</v>
       </c>
       <c r="H52" s="9">
-        <v>552149</v>
+        <v>640720</v>
       </c>
       <c r="I52" s="9">
-        <v>640720</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>601477</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1495,7 +1533,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1505,7 +1543,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1515,9 +1553,9 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1537,7 +1575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1547,7 +1585,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>19</v>
       </c>
@@ -1571,7 +1609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>10</v>
       </c>
@@ -1595,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>11</v>
       </c>
@@ -1604,22 +1642,22 @@
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9">
-        <v>-440652</v>
+        <v>-433412</v>
       </c>
       <c r="F60" s="9">
-        <v>-433412</v>
+        <v>-646733</v>
       </c>
       <c r="G60" s="9">
-        <v>-646733</v>
+        <v>-575481</v>
       </c>
       <c r="H60" s="9">
-        <v>-575481</v>
+        <v>-988695</v>
       </c>
       <c r="I60" s="9">
-        <v>-988695</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-499159</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>15</v>
       </c>
@@ -1628,22 +1666,22 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>-1247519</v>
+        <v>-1212546</v>
       </c>
       <c r="F61" s="11">
-        <v>-1212546</v>
+        <v>-1807179</v>
       </c>
       <c r="G61" s="11">
-        <v>-1807179</v>
+        <v>-1618129</v>
       </c>
       <c r="H61" s="11">
-        <v>-1618129</v>
+        <v>-2120600</v>
       </c>
       <c r="I61" s="11">
-        <v>-2120600</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1572074</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>16</v>
       </c>
@@ -1652,44 +1690,44 @@
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
-        <v>-437091</v>
+        <v>-566928</v>
       </c>
       <c r="F62" s="9">
-        <v>-566928</v>
+        <v>-731857</v>
       </c>
       <c r="G62" s="9">
-        <v>-731857</v>
+        <v>-883913</v>
       </c>
       <c r="H62" s="9">
-        <v>-883913</v>
+        <v>-304078</v>
       </c>
       <c r="I62" s="9">
-        <v>-304078</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2110977</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13">
-        <v>-2125262</v>
+        <v>-2212886</v>
       </c>
       <c r="F63" s="13">
-        <v>-2212886</v>
+        <v>-3185769</v>
       </c>
       <c r="G63" s="13">
-        <v>-3185769</v>
+        <v>-3077523</v>
       </c>
       <c r="H63" s="13">
-        <v>-3077523</v>
+        <v>-3413373</v>
       </c>
       <c r="I63" s="13">
-        <v>-3413373</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4182210</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1699,7 +1737,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1709,7 +1747,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1719,9 +1757,9 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1741,7 +1779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1751,7 +1789,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>19</v>
       </c>
@@ -1775,7 +1813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>10</v>
       </c>
@@ -1799,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>11</v>
       </c>
@@ -1808,22 +1846,22 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>502669</v>
+        <v>663151</v>
       </c>
       <c r="F71" s="9">
-        <v>663151</v>
+        <v>464811</v>
       </c>
       <c r="G71" s="9">
-        <v>464811</v>
+        <v>619422</v>
       </c>
       <c r="H71" s="9">
-        <v>619422</v>
+        <v>1170128</v>
       </c>
       <c r="I71" s="9">
-        <v>1170128</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-219268</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>15</v>
       </c>
@@ -1832,22 +1870,22 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>1131423</v>
+        <v>900308</v>
       </c>
       <c r="F72" s="11">
-        <v>900308</v>
+        <v>889912</v>
       </c>
       <c r="G72" s="11">
-        <v>889912</v>
+        <v>1115015</v>
       </c>
       <c r="H72" s="11">
-        <v>1115015</v>
+        <v>1349536</v>
       </c>
       <c r="I72" s="11">
-        <v>1349536</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1548588</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>16</v>
       </c>
@@ -1856,41 +1894,41 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>521116</v>
+        <v>576864</v>
       </c>
       <c r="F73" s="9">
-        <v>576864</v>
+        <v>646227</v>
       </c>
       <c r="G73" s="9">
-        <v>646227</v>
+        <v>807695</v>
       </c>
       <c r="H73" s="9">
-        <v>807695</v>
+        <v>710975</v>
       </c>
       <c r="I73" s="9">
-        <v>710975</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1808843</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>2155208</v>
+        <v>2140323</v>
       </c>
       <c r="F74" s="13">
-        <v>2140323</v>
+        <v>2000950</v>
       </c>
       <c r="G74" s="13">
-        <v>2000950</v>
+        <v>2542132</v>
       </c>
       <c r="H74" s="13">
-        <v>2542132</v>
+        <v>3230639</v>
       </c>
       <c r="I74" s="13">
-        <v>3230639</v>
+        <v>3138163</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shoyande/kimiatec/product/quarterly.xlsx
+++ b/database/industries/shoyande/kimiatec/product/quarterly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\kimiatec\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\shoyande\kimiatec\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8D900E-2F03-4DC9-A108-5F83485A011E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +36,21 @@
     <t>مقدار تولید</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -55,13 +69,13 @@
     <t>سایر / تخفیفات</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>دارویی (مراقبت پوست)</t>
   </si>
   <si>
     <t>تعداد</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>قوطی</t>
@@ -112,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,7 +296,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -294,7 +308,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -341,23 +355,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -393,23 +390,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -561,17 +541,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -580,8 +562,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -592,8 +579,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -604,8 +596,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -614,8 +611,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -626,8 +628,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -638,8 +645,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -648,8 +660,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -670,8 +687,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -680,196 +712,321 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
+      <c r="E10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="I10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>13</v>
+      <c r="E11" s="11">
+        <v>4353407</v>
       </c>
       <c r="F11" s="11">
+        <v>4799418</v>
+      </c>
+      <c r="G11" s="11">
+        <v>4561797</v>
+      </c>
+      <c r="H11" s="11">
+        <v>3627810</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="11">
         <v>2509811</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>5275511</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>4674724</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>4357531</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="9">
+      <c r="E12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="9">
+        <v>2727610</v>
+      </c>
+      <c r="J12" s="9">
         <v>3778799</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
+      <c r="E13" s="11">
+        <v>9141747</v>
       </c>
       <c r="F13" s="11">
+        <v>10991416</v>
+      </c>
+      <c r="G13" s="11">
+        <v>10179392</v>
+      </c>
+      <c r="H13" s="11">
+        <v>6339988</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="11">
         <v>8543605</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>9698138</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>10735735</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>10103272</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
+      <c r="E14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="9">
+        <v>9767264</v>
+      </c>
+      <c r="J14" s="9">
         <v>8283461</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>13</v>
+      <c r="E15" s="11">
+        <v>2128791</v>
       </c>
       <c r="F15" s="11">
+        <v>2764458</v>
+      </c>
+      <c r="G15" s="11">
+        <v>2296270</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1478935</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="11">
         <v>2473137</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>1497447</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>2506105</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>2534778</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="9">
+      <c r="E16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="9">
+        <v>2043778</v>
+      </c>
+      <c r="J16" s="9">
         <v>1935946</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
+        <v>15623945</v>
+      </c>
+      <c r="F17" s="13">
+        <v>18555292</v>
+      </c>
+      <c r="G17" s="13">
+        <v>17037459</v>
+      </c>
+      <c r="H17" s="13">
+        <v>11446733</v>
+      </c>
+      <c r="I17" s="13">
+        <v>14538652</v>
+      </c>
+      <c r="J17" s="13">
         <v>13998206</v>
       </c>
-      <c r="F17" s="13">
+      <c r="K17" s="13">
         <v>13526553</v>
       </c>
-      <c r="G17" s="13">
+      <c r="L17" s="13">
         <v>16471096</v>
       </c>
-      <c r="H17" s="13">
+      <c r="M17" s="13">
         <v>17916564</v>
       </c>
-      <c r="I17" s="13">
+      <c r="N17" s="13">
         <v>16995581</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -878,8 +1035,13 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -888,8 +1050,13 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -898,10 +1065,15 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -920,8 +1092,23 @@
       <c r="I21" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -930,34 +1117,54 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>13</v>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -967,177 +1174,297 @@
       <c r="F24" s="11">
         <v>0</v>
       </c>
-      <c r="G24" s="11">
-        <v>0</v>
-      </c>
-      <c r="H24" s="11">
-        <v>0</v>
+      <c r="G24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="I24" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
+        <v>0</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>13</v>
+      <c r="E25" s="9">
+        <v>3965080</v>
       </c>
       <c r="F25" s="9">
+        <v>3574712</v>
+      </c>
+      <c r="G25" s="9">
+        <v>3902178</v>
+      </c>
+      <c r="H25" s="9">
+        <v>3503475</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="9">
         <v>3526832</v>
       </c>
-      <c r="G25" s="9">
+      <c r="L25" s="9">
         <v>3847863</v>
       </c>
-      <c r="H25" s="9">
+      <c r="M25" s="9">
         <v>4509662</v>
       </c>
-      <c r="I25" s="9">
+      <c r="N25" s="9">
         <v>2921760</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="11">
+      <c r="E26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="11">
+        <v>2653328</v>
+      </c>
+      <c r="J26" s="11">
         <v>3969266</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>13</v>
+      <c r="E27" s="9">
+        <v>10587099</v>
       </c>
       <c r="F27" s="9">
+        <v>8114182</v>
+      </c>
+      <c r="G27" s="9">
+        <v>9657650</v>
+      </c>
+      <c r="H27" s="9">
+        <v>6904740</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="9">
         <v>10466061</v>
       </c>
-      <c r="G27" s="9">
+      <c r="L27" s="9">
         <v>9747934</v>
       </c>
-      <c r="H27" s="9">
+      <c r="M27" s="9">
         <v>10012442</v>
       </c>
-      <c r="I27" s="9">
+      <c r="N27" s="9">
         <v>8626882</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="11">
+      <c r="E28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="11">
+        <v>11045647</v>
+      </c>
+      <c r="J28" s="11">
         <v>7334750</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>13</v>
+      <c r="E29" s="9">
+        <v>1995077</v>
       </c>
       <c r="F29" s="9">
+        <v>1576384</v>
+      </c>
+      <c r="G29" s="9">
+        <v>3225922</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1973674</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="9">
         <v>2300045</v>
       </c>
-      <c r="G29" s="9">
+      <c r="L29" s="9">
         <v>3063682</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>1584239</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>6516995</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="11">
+      <c r="E30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="11">
+        <v>2019843</v>
+      </c>
+      <c r="J30" s="11">
         <v>2935819</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
+        <v>16547256</v>
+      </c>
+      <c r="F31" s="15">
+        <v>13265278</v>
+      </c>
+      <c r="G31" s="15">
+        <v>16785750</v>
+      </c>
+      <c r="H31" s="15">
+        <v>12381889</v>
+      </c>
+      <c r="I31" s="15">
+        <v>15718818</v>
+      </c>
+      <c r="J31" s="15">
         <v>14239835</v>
       </c>
-      <c r="F31" s="15">
+      <c r="K31" s="15">
         <v>16292938</v>
       </c>
-      <c r="G31" s="15">
+      <c r="L31" s="15">
         <v>16659479</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>16106343</v>
       </c>
-      <c r="I31" s="15">
+      <c r="N31" s="15">
         <v>18065637</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1146,8 +1473,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1156,8 +1488,13 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1166,10 +1503,15 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1188,8 +1530,23 @@
       <c r="I35" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1198,37 +1555,57 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>13</v>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
@@ -1237,111 +1614,186 @@
       <c r="F38" s="11">
         <v>0</v>
       </c>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11">
-        <v>0</v>
+      <c r="G38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="I38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
+        <v>869402</v>
+      </c>
+      <c r="F39" s="9">
+        <v>824591</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1080895</v>
+      </c>
+      <c r="H39" s="9">
+        <v>1060392</v>
+      </c>
+      <c r="I39" s="9">
+        <v>943321</v>
+      </c>
+      <c r="J39" s="9">
         <v>1142457</v>
       </c>
-      <c r="F39" s="9">
+      <c r="K39" s="9">
         <v>1111544</v>
       </c>
-      <c r="G39" s="9">
+      <c r="L39" s="9">
         <v>1194903</v>
       </c>
-      <c r="H39" s="9">
+      <c r="M39" s="9">
         <v>2158823</v>
       </c>
-      <c r="I39" s="9">
+      <c r="N39" s="9">
         <v>279891</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
+        <v>1671424</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1721847</v>
+      </c>
+      <c r="G40" s="11">
+        <v>2292871</v>
+      </c>
+      <c r="H40" s="11">
+        <v>1581151</v>
+      </c>
+      <c r="I40" s="11">
+        <v>2378942</v>
+      </c>
+      <c r="J40" s="11">
         <v>1882454</v>
       </c>
-      <c r="F40" s="11">
+      <c r="K40" s="11">
         <v>2697091</v>
       </c>
-      <c r="G40" s="11">
+      <c r="L40" s="11">
         <v>2733144</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>3470136</v>
       </c>
-      <c r="I40" s="11">
+      <c r="N40" s="11">
         <v>3120662</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
+        <v>571158</v>
+      </c>
+      <c r="F41" s="9">
+        <v>585463</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1021372</v>
+      </c>
+      <c r="H41" s="9">
+        <v>748168</v>
+      </c>
+      <c r="I41" s="9">
+        <v>958207</v>
+      </c>
+      <c r="J41" s="9">
         <v>1328298</v>
       </c>
-      <c r="F41" s="9">
+      <c r="K41" s="9">
         <v>1378084</v>
       </c>
-      <c r="G41" s="9">
+      <c r="L41" s="9">
         <v>1691608</v>
       </c>
-      <c r="H41" s="9">
+      <c r="M41" s="9">
         <v>1015053</v>
       </c>
-      <c r="I41" s="9">
+      <c r="N41" s="9">
         <v>3919820</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
+        <v>3111984</v>
+      </c>
+      <c r="F42" s="13">
+        <v>3131901</v>
+      </c>
+      <c r="G42" s="13">
+        <v>4395138</v>
+      </c>
+      <c r="H42" s="13">
+        <v>3389711</v>
+      </c>
+      <c r="I42" s="13">
+        <v>4280470</v>
+      </c>
+      <c r="J42" s="13">
         <v>4353209</v>
       </c>
-      <c r="F42" s="13">
+      <c r="K42" s="13">
         <v>5186719</v>
       </c>
-      <c r="G42" s="13">
+      <c r="L42" s="13">
         <v>5619655</v>
       </c>
-      <c r="H42" s="13">
+      <c r="M42" s="13">
         <v>6644012</v>
       </c>
-      <c r="I42" s="13">
+      <c r="N42" s="13">
         <v>7320373</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1350,8 +1802,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1360,8 +1817,13 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1370,10 +1832,15 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1392,8 +1859,23 @@
       <c r="I46" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1402,128 +1884,208 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
+        <v>219265</v>
+      </c>
+      <c r="F50" s="9">
+        <v>230673</v>
+      </c>
+      <c r="G50" s="9">
+        <v>276998</v>
+      </c>
+      <c r="H50" s="9">
+        <v>302669</v>
+      </c>
+      <c r="I50" s="9">
+        <v>355524</v>
+      </c>
+      <c r="J50" s="9">
         <v>276263</v>
       </c>
-      <c r="F50" s="9">
+      <c r="K50" s="9">
         <v>315168</v>
       </c>
-      <c r="G50" s="9">
+      <c r="L50" s="9">
         <v>310537</v>
       </c>
-      <c r="H50" s="9">
+      <c r="M50" s="9">
         <v>478711</v>
       </c>
-      <c r="I50" s="9">
+      <c r="N50" s="9">
         <v>95795</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
+        <v>157874</v>
+      </c>
+      <c r="F51" s="11">
+        <v>212202</v>
+      </c>
+      <c r="G51" s="11">
+        <v>237415</v>
+      </c>
+      <c r="H51" s="11">
+        <v>228995</v>
+      </c>
+      <c r="I51" s="11">
+        <v>215374</v>
+      </c>
+      <c r="J51" s="11">
         <v>288061</v>
       </c>
-      <c r="F51" s="11">
+      <c r="K51" s="11">
         <v>257699</v>
       </c>
-      <c r="G51" s="11">
+      <c r="L51" s="11">
         <v>280382</v>
       </c>
-      <c r="H51" s="11">
+      <c r="M51" s="11">
         <v>346582</v>
       </c>
-      <c r="I51" s="11">
+      <c r="N51" s="11">
         <v>361737</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
+        <v>286284</v>
+      </c>
+      <c r="F52" s="9">
+        <v>371396</v>
+      </c>
+      <c r="G52" s="9">
+        <v>316614</v>
+      </c>
+      <c r="H52" s="9">
+        <v>379074</v>
+      </c>
+      <c r="I52" s="9">
+        <v>474397</v>
+      </c>
+      <c r="J52" s="9">
         <v>403431</v>
       </c>
-      <c r="F52" s="9">
+      <c r="K52" s="9">
         <v>599155</v>
       </c>
-      <c r="G52" s="9">
+      <c r="L52" s="9">
         <v>552149</v>
       </c>
-      <c r="H52" s="9">
+      <c r="M52" s="9">
         <v>640720</v>
       </c>
-      <c r="I52" s="9">
+      <c r="N52" s="9">
         <v>601477</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1532,8 +2094,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1542,8 +2109,13 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1552,10 +2124,15 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1574,8 +2151,23 @@
       <c r="I56" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1584,37 +2176,57 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D58" s="9"/>
-      <c r="E58" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>13</v>
+      <c r="E58" s="9">
+        <v>0</v>
+      </c>
+      <c r="F58" s="9">
+        <v>0</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
@@ -1623,111 +2235,186 @@
       <c r="F59" s="11">
         <v>0</v>
       </c>
-      <c r="G59" s="11">
-        <v>0</v>
-      </c>
-      <c r="H59" s="11">
-        <v>0</v>
+      <c r="G59" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="I59" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="11">
+        <v>0</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0</v>
+      </c>
+      <c r="L59" s="11">
+        <v>0</v>
+      </c>
+      <c r="M59" s="11">
+        <v>0</v>
+      </c>
+      <c r="N59" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9">
+        <v>-367767</v>
+      </c>
+      <c r="F60" s="9">
+        <v>-273146</v>
+      </c>
+      <c r="G60" s="9">
+        <v>-611085</v>
+      </c>
+      <c r="H60" s="9">
+        <v>-392752</v>
+      </c>
+      <c r="I60" s="9">
+        <v>-440652</v>
+      </c>
+      <c r="J60" s="9">
         <v>-433412</v>
       </c>
-      <c r="F60" s="9">
+      <c r="K60" s="9">
         <v>-646733</v>
       </c>
-      <c r="G60" s="9">
+      <c r="L60" s="9">
         <v>-575481</v>
       </c>
-      <c r="H60" s="9">
+      <c r="M60" s="9">
         <v>-988695</v>
       </c>
-      <c r="I60" s="9">
+      <c r="N60" s="9">
         <v>-499159</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
+        <v>-858744</v>
+      </c>
+      <c r="F61" s="11">
+        <v>-771148</v>
+      </c>
+      <c r="G61" s="11">
+        <v>-1533587</v>
+      </c>
+      <c r="H61" s="11">
+        <v>-876056</v>
+      </c>
+      <c r="I61" s="11">
+        <v>-1247519</v>
+      </c>
+      <c r="J61" s="11">
         <v>-1212546</v>
       </c>
-      <c r="F61" s="11">
+      <c r="K61" s="11">
         <v>-1807179</v>
       </c>
-      <c r="G61" s="11">
+      <c r="L61" s="11">
         <v>-1618129</v>
       </c>
-      <c r="H61" s="11">
+      <c r="M61" s="11">
         <v>-2120600</v>
       </c>
-      <c r="I61" s="11">
+      <c r="N61" s="11">
         <v>-1572074</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
+        <v>-234025</v>
+      </c>
+      <c r="F62" s="9">
+        <v>-242505</v>
+      </c>
+      <c r="G62" s="9">
+        <v>-575404</v>
+      </c>
+      <c r="H62" s="9">
+        <v>-416065</v>
+      </c>
+      <c r="I62" s="9">
+        <v>-437091</v>
+      </c>
+      <c r="J62" s="9">
         <v>-566928</v>
       </c>
-      <c r="F62" s="9">
+      <c r="K62" s="9">
         <v>-731857</v>
       </c>
-      <c r="G62" s="9">
+      <c r="L62" s="9">
         <v>-883913</v>
       </c>
-      <c r="H62" s="9">
+      <c r="M62" s="9">
         <v>-304078</v>
       </c>
-      <c r="I62" s="9">
+      <c r="N62" s="9">
         <v>-2110977</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13">
+        <v>-1460536</v>
+      </c>
+      <c r="F63" s="13">
+        <v>-1286799</v>
+      </c>
+      <c r="G63" s="13">
+        <v>-2720076</v>
+      </c>
+      <c r="H63" s="13">
+        <v>-1684873</v>
+      </c>
+      <c r="I63" s="13">
+        <v>-2125262</v>
+      </c>
+      <c r="J63" s="13">
         <v>-2212886</v>
       </c>
-      <c r="F63" s="13">
+      <c r="K63" s="13">
         <v>-3185769</v>
       </c>
-      <c r="G63" s="13">
+      <c r="L63" s="13">
         <v>-3077523</v>
       </c>
-      <c r="H63" s="13">
+      <c r="M63" s="13">
         <v>-3413373</v>
       </c>
-      <c r="I63" s="13">
+      <c r="N63" s="13">
         <v>-4182210</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1736,8 +2423,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1746,8 +2438,13 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1756,10 +2453,15 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1778,8 +2480,23 @@
       <c r="I67" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1788,37 +2505,57 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>13</v>
+      <c r="E69" s="9">
+        <v>0</v>
+      </c>
+      <c r="F69" s="9">
+        <v>0</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
@@ -1827,107 +2564,182 @@
       <c r="F70" s="11">
         <v>0</v>
       </c>
-      <c r="G70" s="11">
-        <v>0</v>
-      </c>
-      <c r="H70" s="11">
-        <v>0</v>
+      <c r="G70" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="I70" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="11">
+        <v>0</v>
+      </c>
+      <c r="K70" s="11">
+        <v>0</v>
+      </c>
+      <c r="L70" s="11">
+        <v>0</v>
+      </c>
+      <c r="M70" s="11">
+        <v>0</v>
+      </c>
+      <c r="N70" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
+        <v>501635</v>
+      </c>
+      <c r="F71" s="9">
+        <v>551445</v>
+      </c>
+      <c r="G71" s="9">
+        <v>469809</v>
+      </c>
+      <c r="H71" s="9">
+        <v>667640</v>
+      </c>
+      <c r="I71" s="9">
+        <v>502669</v>
+      </c>
+      <c r="J71" s="9">
         <v>663151</v>
       </c>
-      <c r="F71" s="9">
+      <c r="K71" s="9">
         <v>464811</v>
       </c>
-      <c r="G71" s="9">
+      <c r="L71" s="9">
         <v>619422</v>
       </c>
-      <c r="H71" s="9">
+      <c r="M71" s="9">
         <v>1170128</v>
       </c>
-      <c r="I71" s="9">
+      <c r="N71" s="9">
         <v>-219268</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
+        <v>812680</v>
+      </c>
+      <c r="F72" s="11">
+        <v>950699</v>
+      </c>
+      <c r="G72" s="11">
+        <v>759285</v>
+      </c>
+      <c r="H72" s="11">
+        <v>705095</v>
+      </c>
+      <c r="I72" s="11">
+        <v>1131423</v>
+      </c>
+      <c r="J72" s="11">
         <v>900308</v>
       </c>
-      <c r="F72" s="11">
+      <c r="K72" s="11">
         <v>889912</v>
       </c>
-      <c r="G72" s="11">
+      <c r="L72" s="11">
         <v>1115015</v>
       </c>
-      <c r="H72" s="11">
+      <c r="M72" s="11">
         <v>1349536</v>
       </c>
-      <c r="I72" s="11">
+      <c r="N72" s="11">
         <v>1548588</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
+        <v>337133</v>
+      </c>
+      <c r="F73" s="9">
+        <v>342958</v>
+      </c>
+      <c r="G73" s="9">
+        <v>445968</v>
+      </c>
+      <c r="H73" s="9">
+        <v>332103</v>
+      </c>
+      <c r="I73" s="9">
+        <v>521116</v>
+      </c>
+      <c r="J73" s="9">
         <v>576864</v>
       </c>
-      <c r="F73" s="9">
+      <c r="K73" s="9">
         <v>646227</v>
       </c>
-      <c r="G73" s="9">
+      <c r="L73" s="9">
         <v>807695</v>
       </c>
-      <c r="H73" s="9">
+      <c r="M73" s="9">
         <v>710975</v>
       </c>
-      <c r="I73" s="9">
+      <c r="N73" s="9">
         <v>1808843</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
+        <v>1651448</v>
+      </c>
+      <c r="F74" s="13">
+        <v>1845102</v>
+      </c>
+      <c r="G74" s="13">
+        <v>1675062</v>
+      </c>
+      <c r="H74" s="13">
+        <v>1704838</v>
+      </c>
+      <c r="I74" s="13">
+        <v>2155208</v>
+      </c>
+      <c r="J74" s="13">
         <v>2140323</v>
       </c>
-      <c r="F74" s="13">
+      <c r="K74" s="13">
         <v>2000950</v>
       </c>
-      <c r="G74" s="13">
+      <c r="L74" s="13">
         <v>2542132</v>
       </c>
-      <c r="H74" s="13">
+      <c r="M74" s="13">
         <v>3230639</v>
       </c>
-      <c r="I74" s="13">
+      <c r="N74" s="13">
         <v>3138163</v>
       </c>
     </row>

--- a/database/industries/shoyande/kimiatec/product/quarterly.xlsx
+++ b/database/industries/shoyande/kimiatec/product/quarterly.xlsx
@@ -544,9 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/database/industries/shoyande/kimiatec/product/quarterly.xlsx
+++ b/database/industries/shoyande/kimiatec/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\shoyande\kimiatec\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF162844-D6F8-4336-A441-6D07EBF3BEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,7 +297,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -308,7 +309,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -355,6 +356,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -390,6 +408,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,12 +576,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/database/industries/shoyande/kimiatec/product/quarterly.xlsx
+++ b/database/industries/shoyande/kimiatec/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF162844-D6F8-4336-A441-6D07EBF3BEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01953D20-0718-4A1C-88E9-1EBF2A4555A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>سایر / تخفیفات</t>
@@ -581,12 +581,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -601,7 +601,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -618,7 +618,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -635,7 +635,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -650,7 +650,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -667,7 +667,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -684,7 +684,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -699,7 +699,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -736,7 +736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -751,7 +751,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -766,8 +766,8 @@
       <c r="G10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>16</v>
+      <c r="H10" s="9">
+        <v>0</v>
       </c>
       <c r="I10" s="9">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -797,37 +797,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>4353407</v>
+        <v>4799418</v>
       </c>
       <c r="F11" s="11">
-        <v>4799418</v>
+        <v>4561797</v>
       </c>
       <c r="G11" s="11">
-        <v>4561797</v>
-      </c>
-      <c r="H11" s="11">
         <v>3627810</v>
       </c>
+      <c r="H11" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="I11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>16</v>
+      <c r="J11" s="11">
+        <v>2509811</v>
       </c>
       <c r="K11" s="11">
-        <v>2509811</v>
+        <v>5275511</v>
       </c>
       <c r="L11" s="11">
-        <v>5275511</v>
+        <v>4674724</v>
       </c>
       <c r="M11" s="11">
-        <v>4674724</v>
+        <v>4357531</v>
       </c>
       <c r="N11" s="11">
-        <v>4357531</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5459031</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
@@ -844,15 +844,15 @@
       <c r="G12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>16</v>
+      <c r="H12" s="9">
+        <v>2727610</v>
       </c>
       <c r="I12" s="9">
-        <v>2727610</v>
-      </c>
-      <c r="J12" s="9">
         <v>3778799</v>
       </c>
+      <c r="J12" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="K12" s="9" t="s">
         <v>16</v>
       </c>
@@ -866,7 +866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -875,37 +875,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>9141747</v>
+        <v>10991416</v>
       </c>
       <c r="F13" s="11">
-        <v>10991416</v>
+        <v>10179392</v>
       </c>
       <c r="G13" s="11">
-        <v>10179392</v>
-      </c>
-      <c r="H13" s="11">
         <v>6339988</v>
       </c>
+      <c r="H13" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="I13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>16</v>
+      <c r="J13" s="11">
+        <v>8543605</v>
       </c>
       <c r="K13" s="11">
-        <v>8543605</v>
+        <v>9698138</v>
       </c>
       <c r="L13" s="11">
-        <v>9698138</v>
+        <v>10735735</v>
       </c>
       <c r="M13" s="11">
-        <v>10735735</v>
+        <v>10103272</v>
       </c>
       <c r="N13" s="11">
-        <v>10103272</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10485836</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
@@ -922,15 +922,15 @@
       <c r="G14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>16</v>
+      <c r="H14" s="9">
+        <v>9767264</v>
       </c>
       <c r="I14" s="9">
-        <v>9767264</v>
-      </c>
-      <c r="J14" s="9">
         <v>8283461</v>
       </c>
+      <c r="J14" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="K14" s="9" t="s">
         <v>16</v>
       </c>
@@ -944,7 +944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -953,37 +953,37 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>2128791</v>
+        <v>2764458</v>
       </c>
       <c r="F15" s="11">
-        <v>2764458</v>
+        <v>2296270</v>
       </c>
       <c r="G15" s="11">
-        <v>2296270</v>
-      </c>
-      <c r="H15" s="11">
         <v>1478935</v>
       </c>
+      <c r="H15" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="I15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>16</v>
+      <c r="J15" s="11">
+        <v>2473137</v>
       </c>
       <c r="K15" s="11">
-        <v>2473137</v>
+        <v>1497447</v>
       </c>
       <c r="L15" s="11">
-        <v>1497447</v>
+        <v>2506105</v>
       </c>
       <c r="M15" s="11">
-        <v>2506105</v>
+        <v>2534778</v>
       </c>
       <c r="N15" s="11">
-        <v>2534778</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12329583</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
@@ -1000,15 +1000,15 @@
       <c r="G16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>16</v>
+      <c r="H16" s="9">
+        <v>2043778</v>
       </c>
       <c r="I16" s="9">
-        <v>2043778</v>
-      </c>
-      <c r="J16" s="9">
         <v>1935946</v>
       </c>
+      <c r="J16" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="K16" s="9" t="s">
         <v>16</v>
       </c>
@@ -1022,44 +1022,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
-        <v>15623945</v>
+        <v>18555292</v>
       </c>
       <c r="F17" s="13">
-        <v>18555292</v>
+        <v>17037459</v>
       </c>
       <c r="G17" s="13">
-        <v>17037459</v>
+        <v>11446733</v>
       </c>
       <c r="H17" s="13">
-        <v>11446733</v>
+        <v>14538652</v>
       </c>
       <c r="I17" s="13">
-        <v>14538652</v>
+        <v>13998206</v>
       </c>
       <c r="J17" s="13">
-        <v>13998206</v>
+        <v>13526553</v>
       </c>
       <c r="K17" s="13">
-        <v>13526553</v>
+        <v>16471096</v>
       </c>
       <c r="L17" s="13">
-        <v>16471096</v>
+        <v>17916564</v>
       </c>
       <c r="M17" s="13">
-        <v>17916564</v>
+        <v>16995581</v>
       </c>
       <c r="N17" s="13">
-        <v>16995581</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17356388</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1074,7 +1074,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1089,7 +1089,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1104,7 +1104,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>23</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1156,7 +1156,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>24</v>
       </c>
@@ -1167,8 +1167,8 @@
       <c r="E23" s="9">
         <v>0</v>
       </c>
-      <c r="F23" s="9">
-        <v>0</v>
+      <c r="F23" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>16</v>
@@ -1195,7 +1195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>15</v>
       </c>
@@ -1204,14 +1204,14 @@
       <c r="E24" s="11">
         <v>0</v>
       </c>
-      <c r="F24" s="11">
-        <v>0</v>
+      <c r="F24" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>16</v>
+      <c r="H24" s="11">
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>17</v>
       </c>
@@ -1241,37 +1241,37 @@
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9">
-        <v>3965080</v>
+        <v>3574712</v>
       </c>
       <c r="F25" s="9">
-        <v>3574712</v>
+        <v>3902178</v>
       </c>
       <c r="G25" s="9">
-        <v>3902178</v>
-      </c>
-      <c r="H25" s="9">
         <v>3503475</v>
       </c>
+      <c r="H25" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="I25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>16</v>
+      <c r="J25" s="9">
+        <v>3526832</v>
       </c>
       <c r="K25" s="9">
-        <v>3526832</v>
+        <v>3847863</v>
       </c>
       <c r="L25" s="9">
-        <v>3847863</v>
+        <v>4509662</v>
       </c>
       <c r="M25" s="9">
-        <v>4509662</v>
+        <v>2921760</v>
       </c>
       <c r="N25" s="9">
-        <v>2921760</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4485770</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>17</v>
       </c>
@@ -1286,15 +1286,15 @@
       <c r="G26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>16</v>
+      <c r="H26" s="11">
+        <v>2653328</v>
       </c>
       <c r="I26" s="11">
-        <v>2653328</v>
-      </c>
-      <c r="J26" s="11">
         <v>3969266</v>
       </c>
+      <c r="J26" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="K26" s="11" t="s">
         <v>16</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>20</v>
       </c>
@@ -1317,37 +1317,37 @@
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9">
-        <v>10587099</v>
+        <v>8114182</v>
       </c>
       <c r="F27" s="9">
-        <v>8114182</v>
+        <v>9657650</v>
       </c>
       <c r="G27" s="9">
-        <v>9657650</v>
-      </c>
-      <c r="H27" s="9">
         <v>6904740</v>
       </c>
+      <c r="H27" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="I27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>16</v>
+      <c r="J27" s="9">
+        <v>10466061</v>
       </c>
       <c r="K27" s="9">
-        <v>10466061</v>
+        <v>9747934</v>
       </c>
       <c r="L27" s="9">
-        <v>9747934</v>
+        <v>10012442</v>
       </c>
       <c r="M27" s="9">
-        <v>10012442</v>
+        <v>8626882</v>
       </c>
       <c r="N27" s="9">
-        <v>8626882</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9221271</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>20</v>
       </c>
@@ -1362,15 +1362,15 @@
       <c r="G28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>16</v>
+      <c r="H28" s="11">
+        <v>11045647</v>
       </c>
       <c r="I28" s="11">
-        <v>11045647</v>
-      </c>
-      <c r="J28" s="11">
         <v>7334750</v>
       </c>
+      <c r="J28" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="K28" s="11" t="s">
         <v>16</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>21</v>
       </c>
@@ -1393,37 +1393,37 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>1995077</v>
+        <v>1576384</v>
       </c>
       <c r="F29" s="9">
-        <v>1576384</v>
+        <v>3225922</v>
       </c>
       <c r="G29" s="9">
-        <v>3225922</v>
-      </c>
-      <c r="H29" s="9">
         <v>1973674</v>
       </c>
+      <c r="H29" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="I29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="9" t="s">
-        <v>16</v>
+      <c r="J29" s="9">
+        <v>2300045</v>
       </c>
       <c r="K29" s="9">
-        <v>2300045</v>
+        <v>3063682</v>
       </c>
       <c r="L29" s="9">
-        <v>3063682</v>
+        <v>1584239</v>
       </c>
       <c r="M29" s="9">
-        <v>1584239</v>
+        <v>6516995</v>
       </c>
       <c r="N29" s="9">
-        <v>6516995</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3226290</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>21</v>
       </c>
@@ -1438,15 +1438,15 @@
       <c r="G30" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>16</v>
+      <c r="H30" s="11">
+        <v>2019843</v>
       </c>
       <c r="I30" s="11">
-        <v>2019843</v>
-      </c>
-      <c r="J30" s="11">
         <v>2935819</v>
       </c>
+      <c r="J30" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="K30" s="11" t="s">
         <v>16</v>
       </c>
@@ -1460,44 +1460,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>16547256</v>
+        <v>13265278</v>
       </c>
       <c r="F31" s="15">
-        <v>13265278</v>
+        <v>16785750</v>
       </c>
       <c r="G31" s="15">
-        <v>16785750</v>
+        <v>12381889</v>
       </c>
       <c r="H31" s="15">
-        <v>12381889</v>
+        <v>15718818</v>
       </c>
       <c r="I31" s="15">
-        <v>15718818</v>
+        <v>14239835</v>
       </c>
       <c r="J31" s="15">
-        <v>14239835</v>
+        <v>16292938</v>
       </c>
       <c r="K31" s="15">
-        <v>16292938</v>
+        <v>16659479</v>
       </c>
       <c r="L31" s="15">
-        <v>16659479</v>
+        <v>16106343</v>
       </c>
       <c r="M31" s="15">
-        <v>16106343</v>
+        <v>18065637</v>
       </c>
       <c r="N31" s="15">
-        <v>18065637</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16933331</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1512,7 +1512,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1527,7 +1527,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1542,7 +1542,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>26</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1594,7 +1594,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>24</v>
       </c>
@@ -1605,8 +1605,8 @@
       <c r="E37" s="9">
         <v>0</v>
       </c>
-      <c r="F37" s="9">
-        <v>0</v>
+      <c r="F37" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>16</v>
@@ -1633,7 +1633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>15</v>
       </c>
@@ -1644,14 +1644,14 @@
       <c r="E38" s="11">
         <v>0</v>
       </c>
-      <c r="F38" s="11">
-        <v>0</v>
+      <c r="F38" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>16</v>
+      <c r="H38" s="11">
+        <v>0</v>
       </c>
       <c r="I38" s="11">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>17</v>
       </c>
@@ -1681,37 +1681,37 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
-        <v>869402</v>
+        <v>824591</v>
       </c>
       <c r="F39" s="9">
-        <v>824591</v>
+        <v>1080895</v>
       </c>
       <c r="G39" s="9">
-        <v>1080895</v>
+        <v>1060392</v>
       </c>
       <c r="H39" s="9">
-        <v>1060392</v>
+        <v>943321</v>
       </c>
       <c r="I39" s="9">
-        <v>943321</v>
+        <v>1142457</v>
       </c>
       <c r="J39" s="9">
-        <v>1142457</v>
+        <v>1111544</v>
       </c>
       <c r="K39" s="9">
-        <v>1111544</v>
+        <v>1194903</v>
       </c>
       <c r="L39" s="9">
-        <v>1194903</v>
+        <v>2158823</v>
       </c>
       <c r="M39" s="9">
-        <v>2158823</v>
+        <v>279891</v>
       </c>
       <c r="N39" s="9">
-        <v>279891</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1440889</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>20</v>
       </c>
@@ -1720,37 +1720,37 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>1671424</v>
+        <v>1721847</v>
       </c>
       <c r="F40" s="11">
-        <v>1721847</v>
+        <v>2292871</v>
       </c>
       <c r="G40" s="11">
-        <v>2292871</v>
+        <v>1581151</v>
       </c>
       <c r="H40" s="11">
-        <v>1581151</v>
+        <v>2378942</v>
       </c>
       <c r="I40" s="11">
-        <v>2378942</v>
+        <v>1882454</v>
       </c>
       <c r="J40" s="11">
-        <v>1882454</v>
+        <v>2697091</v>
       </c>
       <c r="K40" s="11">
-        <v>2697091</v>
+        <v>2733144</v>
       </c>
       <c r="L40" s="11">
-        <v>2733144</v>
+        <v>3470136</v>
       </c>
       <c r="M40" s="11">
-        <v>3470136</v>
+        <v>3120662</v>
       </c>
       <c r="N40" s="11">
-        <v>3120662</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4568718</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>21</v>
       </c>
@@ -1759,74 +1759,74 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
-        <v>571158</v>
+        <v>585463</v>
       </c>
       <c r="F41" s="9">
-        <v>585463</v>
+        <v>1021372</v>
       </c>
       <c r="G41" s="9">
-        <v>1021372</v>
+        <v>748168</v>
       </c>
       <c r="H41" s="9">
-        <v>748168</v>
+        <v>958207</v>
       </c>
       <c r="I41" s="9">
-        <v>958207</v>
+        <v>1328298</v>
       </c>
       <c r="J41" s="9">
-        <v>1328298</v>
+        <v>1378084</v>
       </c>
       <c r="K41" s="9">
-        <v>1378084</v>
+        <v>1691608</v>
       </c>
       <c r="L41" s="9">
-        <v>1691608</v>
+        <v>1015053</v>
       </c>
       <c r="M41" s="9">
-        <v>1015053</v>
+        <v>3919820</v>
       </c>
       <c r="N41" s="9">
-        <v>3919820</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1667080</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
-        <v>3111984</v>
+        <v>3131901</v>
       </c>
       <c r="F42" s="13">
-        <v>3131901</v>
+        <v>4395138</v>
       </c>
       <c r="G42" s="13">
-        <v>4395138</v>
+        <v>3389711</v>
       </c>
       <c r="H42" s="13">
-        <v>3389711</v>
+        <v>4280470</v>
       </c>
       <c r="I42" s="13">
-        <v>4280470</v>
+        <v>4353209</v>
       </c>
       <c r="J42" s="13">
-        <v>4353209</v>
+        <v>5186719</v>
       </c>
       <c r="K42" s="13">
-        <v>5186719</v>
+        <v>5619655</v>
       </c>
       <c r="L42" s="13">
-        <v>5619655</v>
+        <v>6644012</v>
       </c>
       <c r="M42" s="13">
-        <v>6644012</v>
+        <v>7320373</v>
       </c>
       <c r="N42" s="13">
-        <v>7320373</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7676687</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1841,7 +1841,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1856,7 +1856,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1871,7 +1871,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>28</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1923,7 +1923,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>24</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>15</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>17</v>
       </c>
@@ -2010,37 +2010,37 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>219265</v>
+        <v>230673</v>
       </c>
       <c r="F50" s="9">
-        <v>230673</v>
+        <v>276998</v>
       </c>
       <c r="G50" s="9">
-        <v>276998</v>
+        <v>302669</v>
       </c>
       <c r="H50" s="9">
-        <v>302669</v>
+        <v>355524</v>
       </c>
       <c r="I50" s="9">
-        <v>355524</v>
+        <v>276263</v>
       </c>
       <c r="J50" s="9">
-        <v>276263</v>
+        <v>315168</v>
       </c>
       <c r="K50" s="9">
-        <v>315168</v>
+        <v>310537</v>
       </c>
       <c r="L50" s="9">
-        <v>310537</v>
+        <v>478711</v>
       </c>
       <c r="M50" s="9">
-        <v>478711</v>
+        <v>95795</v>
       </c>
       <c r="N50" s="9">
-        <v>95795</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>321213</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>20</v>
       </c>
@@ -2049,37 +2049,37 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>157874</v>
+        <v>212202</v>
       </c>
       <c r="F51" s="11">
-        <v>212202</v>
+        <v>237415</v>
       </c>
       <c r="G51" s="11">
-        <v>237415</v>
+        <v>228995</v>
       </c>
       <c r="H51" s="11">
-        <v>228995</v>
+        <v>215374</v>
       </c>
       <c r="I51" s="11">
-        <v>215374</v>
+        <v>288061</v>
       </c>
       <c r="J51" s="11">
-        <v>288061</v>
+        <v>257699</v>
       </c>
       <c r="K51" s="11">
-        <v>257699</v>
+        <v>280382</v>
       </c>
       <c r="L51" s="11">
-        <v>280382</v>
+        <v>346582</v>
       </c>
       <c r="M51" s="11">
-        <v>346582</v>
+        <v>361737</v>
       </c>
       <c r="N51" s="11">
-        <v>361737</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>495454</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>21</v>
       </c>
@@ -2088,37 +2088,37 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
-        <v>286284</v>
+        <v>371396</v>
       </c>
       <c r="F52" s="9">
-        <v>371396</v>
+        <v>316614</v>
       </c>
       <c r="G52" s="9">
-        <v>316614</v>
+        <v>379074</v>
       </c>
       <c r="H52" s="9">
-        <v>379074</v>
+        <v>474397</v>
       </c>
       <c r="I52" s="9">
-        <v>474397</v>
+        <v>403431</v>
       </c>
       <c r="J52" s="9">
-        <v>403431</v>
+        <v>599155</v>
       </c>
       <c r="K52" s="9">
-        <v>599155</v>
+        <v>552149</v>
       </c>
       <c r="L52" s="9">
-        <v>552149</v>
+        <v>640720</v>
       </c>
       <c r="M52" s="9">
-        <v>640720</v>
+        <v>601477</v>
       </c>
       <c r="N52" s="9">
-        <v>601477</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>516717</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2133,7 +2133,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2148,7 +2148,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2163,7 +2163,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>32</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2215,7 +2215,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>24</v>
       </c>
@@ -2226,8 +2226,8 @@
       <c r="E58" s="9">
         <v>0</v>
       </c>
-      <c r="F58" s="9">
-        <v>0</v>
+      <c r="F58" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>16</v>
@@ -2254,7 +2254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>15</v>
       </c>
@@ -2265,14 +2265,14 @@
       <c r="E59" s="11">
         <v>0</v>
       </c>
-      <c r="F59" s="11">
-        <v>0</v>
+      <c r="F59" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H59" s="11" t="s">
-        <v>16</v>
+      <c r="H59" s="11">
+        <v>0</v>
       </c>
       <c r="I59" s="11">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>17</v>
       </c>
@@ -2302,37 +2302,37 @@
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9">
-        <v>-367767</v>
+        <v>-273146</v>
       </c>
       <c r="F60" s="9">
-        <v>-273146</v>
+        <v>-611085</v>
       </c>
       <c r="G60" s="9">
-        <v>-611085</v>
+        <v>-392752</v>
       </c>
       <c r="H60" s="9">
-        <v>-392752</v>
+        <v>-440652</v>
       </c>
       <c r="I60" s="9">
-        <v>-440652</v>
+        <v>-433412</v>
       </c>
       <c r="J60" s="9">
-        <v>-433412</v>
+        <v>-646733</v>
       </c>
       <c r="K60" s="9">
-        <v>-646733</v>
+        <v>-575481</v>
       </c>
       <c r="L60" s="9">
-        <v>-575481</v>
+        <v>-988695</v>
       </c>
       <c r="M60" s="9">
-        <v>-988695</v>
+        <v>-499159</v>
       </c>
       <c r="N60" s="9">
-        <v>-499159</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-926933</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>20</v>
       </c>
@@ -2341,37 +2341,37 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>-858744</v>
+        <v>-771148</v>
       </c>
       <c r="F61" s="11">
-        <v>-771148</v>
+        <v>-1533587</v>
       </c>
       <c r="G61" s="11">
-        <v>-1533587</v>
+        <v>-876056</v>
       </c>
       <c r="H61" s="11">
-        <v>-876056</v>
+        <v>-1247519</v>
       </c>
       <c r="I61" s="11">
-        <v>-1247519</v>
+        <v>-1212546</v>
       </c>
       <c r="J61" s="11">
-        <v>-1212546</v>
+        <v>-1807179</v>
       </c>
       <c r="K61" s="11">
-        <v>-1807179</v>
+        <v>-1618129</v>
       </c>
       <c r="L61" s="11">
-        <v>-1618129</v>
+        <v>-2120600</v>
       </c>
       <c r="M61" s="11">
-        <v>-2120600</v>
+        <v>-1572074</v>
       </c>
       <c r="N61" s="11">
-        <v>-1572074</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3164387</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>21</v>
       </c>
@@ -2380,74 +2380,74 @@
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
-        <v>-234025</v>
+        <v>-242505</v>
       </c>
       <c r="F62" s="9">
-        <v>-242505</v>
+        <v>-575404</v>
       </c>
       <c r="G62" s="9">
-        <v>-575404</v>
+        <v>-416065</v>
       </c>
       <c r="H62" s="9">
-        <v>-416065</v>
+        <v>-437091</v>
       </c>
       <c r="I62" s="9">
-        <v>-437091</v>
+        <v>-566928</v>
       </c>
       <c r="J62" s="9">
-        <v>-566928</v>
+        <v>-731857</v>
       </c>
       <c r="K62" s="9">
-        <v>-731857</v>
+        <v>-883913</v>
       </c>
       <c r="L62" s="9">
-        <v>-883913</v>
+        <v>-304078</v>
       </c>
       <c r="M62" s="9">
-        <v>-304078</v>
+        <v>-2110977</v>
       </c>
       <c r="N62" s="9">
-        <v>-2110977</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-399633</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13">
-        <v>-1460536</v>
+        <v>-1286799</v>
       </c>
       <c r="F63" s="13">
-        <v>-1286799</v>
+        <v>-2720076</v>
       </c>
       <c r="G63" s="13">
-        <v>-2720076</v>
+        <v>-1684873</v>
       </c>
       <c r="H63" s="13">
-        <v>-1684873</v>
+        <v>-2125262</v>
       </c>
       <c r="I63" s="13">
-        <v>-2125262</v>
+        <v>-2212886</v>
       </c>
       <c r="J63" s="13">
-        <v>-2212886</v>
+        <v>-3185769</v>
       </c>
       <c r="K63" s="13">
-        <v>-3185769</v>
+        <v>-3077523</v>
       </c>
       <c r="L63" s="13">
-        <v>-3077523</v>
+        <v>-3413373</v>
       </c>
       <c r="M63" s="13">
-        <v>-3413373</v>
+        <v>-4182210</v>
       </c>
       <c r="N63" s="13">
-        <v>-4182210</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4490953</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2462,7 +2462,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2477,7 +2477,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2492,7 +2492,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>33</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2544,7 +2544,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>24</v>
       </c>
@@ -2555,8 +2555,8 @@
       <c r="E69" s="9">
         <v>0</v>
       </c>
-      <c r="F69" s="9">
-        <v>0</v>
+      <c r="F69" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>16</v>
@@ -2583,7 +2583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>15</v>
       </c>
@@ -2594,14 +2594,14 @@
       <c r="E70" s="11">
         <v>0</v>
       </c>
-      <c r="F70" s="11">
-        <v>0</v>
+      <c r="F70" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H70" s="11" t="s">
-        <v>16</v>
+      <c r="H70" s="11">
+        <v>0</v>
       </c>
       <c r="I70" s="11">
         <v>0</v>
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>17</v>
       </c>
@@ -2631,37 +2631,37 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>501635</v>
+        <v>551445</v>
       </c>
       <c r="F71" s="9">
-        <v>551445</v>
+        <v>469809</v>
       </c>
       <c r="G71" s="9">
-        <v>469809</v>
+        <v>667640</v>
       </c>
       <c r="H71" s="9">
-        <v>667640</v>
+        <v>502669</v>
       </c>
       <c r="I71" s="9">
-        <v>502669</v>
+        <v>663151</v>
       </c>
       <c r="J71" s="9">
-        <v>663151</v>
+        <v>464811</v>
       </c>
       <c r="K71" s="9">
-        <v>464811</v>
+        <v>619422</v>
       </c>
       <c r="L71" s="9">
-        <v>619422</v>
+        <v>1170128</v>
       </c>
       <c r="M71" s="9">
-        <v>1170128</v>
+        <v>-219268</v>
       </c>
       <c r="N71" s="9">
-        <v>-219268</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>513956</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>20</v>
       </c>
@@ -2670,37 +2670,37 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>812680</v>
+        <v>950699</v>
       </c>
       <c r="F72" s="11">
-        <v>950699</v>
+        <v>759285</v>
       </c>
       <c r="G72" s="11">
-        <v>759285</v>
+        <v>705095</v>
       </c>
       <c r="H72" s="11">
-        <v>705095</v>
+        <v>1131423</v>
       </c>
       <c r="I72" s="11">
-        <v>1131423</v>
+        <v>900308</v>
       </c>
       <c r="J72" s="11">
-        <v>900308</v>
+        <v>889912</v>
       </c>
       <c r="K72" s="11">
-        <v>889912</v>
+        <v>1115015</v>
       </c>
       <c r="L72" s="11">
-        <v>1115015</v>
+        <v>1349536</v>
       </c>
       <c r="M72" s="11">
-        <v>1349536</v>
+        <v>1548588</v>
       </c>
       <c r="N72" s="11">
-        <v>1548588</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1404331</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>21</v>
       </c>
@@ -2709,71 +2709,71 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>337133</v>
+        <v>342958</v>
       </c>
       <c r="F73" s="9">
-        <v>342958</v>
+        <v>445968</v>
       </c>
       <c r="G73" s="9">
-        <v>445968</v>
+        <v>332103</v>
       </c>
       <c r="H73" s="9">
-        <v>332103</v>
+        <v>521116</v>
       </c>
       <c r="I73" s="9">
-        <v>521116</v>
+        <v>576864</v>
       </c>
       <c r="J73" s="9">
-        <v>576864</v>
+        <v>646227</v>
       </c>
       <c r="K73" s="9">
-        <v>646227</v>
+        <v>807695</v>
       </c>
       <c r="L73" s="9">
-        <v>807695</v>
+        <v>710975</v>
       </c>
       <c r="M73" s="9">
-        <v>710975</v>
+        <v>1808843</v>
       </c>
       <c r="N73" s="9">
-        <v>1808843</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1267447</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>1651448</v>
+        <v>1845102</v>
       </c>
       <c r="F74" s="13">
-        <v>1845102</v>
+        <v>1675062</v>
       </c>
       <c r="G74" s="13">
-        <v>1675062</v>
+        <v>1704838</v>
       </c>
       <c r="H74" s="13">
-        <v>1704838</v>
+        <v>2155208</v>
       </c>
       <c r="I74" s="13">
-        <v>2155208</v>
+        <v>2140323</v>
       </c>
       <c r="J74" s="13">
-        <v>2140323</v>
+        <v>2000950</v>
       </c>
       <c r="K74" s="13">
-        <v>2000950</v>
+        <v>2542132</v>
       </c>
       <c r="L74" s="13">
-        <v>2542132</v>
+        <v>3230639</v>
       </c>
       <c r="M74" s="13">
-        <v>3230639</v>
+        <v>3138163</v>
       </c>
       <c r="N74" s="13">
-        <v>3138163</v>
+        <v>3185734</v>
       </c>
     </row>
   </sheetData>
